--- a/Code/Results/Cases/Case_8_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.442622331871604</v>
+        <v>1.272441920147031</v>
       </c>
       <c r="C2">
-        <v>0.1698874006360285</v>
+        <v>0.2057489546142079</v>
       </c>
       <c r="D2">
-        <v>0.01298101445507882</v>
+        <v>0.0203129159625135</v>
       </c>
       <c r="E2">
-        <v>0.02016498827133795</v>
+        <v>0.02570345820704212</v>
       </c>
       <c r="F2">
-        <v>1.909453929361618</v>
+        <v>1.549788023766666</v>
       </c>
       <c r="G2">
-        <v>0.0008536919830593348</v>
+        <v>0.06267823586861843</v>
       </c>
       <c r="H2">
-        <v>0.029639442404783</v>
+        <v>0.01660648947082821</v>
       </c>
       <c r="I2">
-        <v>0.03566088054859318</v>
+        <v>0.01788096162016029</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.132708491139041</v>
+        <v>0.8673988402272386</v>
       </c>
       <c r="L2">
-        <v>0.04418618502001692</v>
+        <v>0.3459314237468476</v>
       </c>
       <c r="M2">
-        <v>1.471817007086457</v>
+        <v>0.3040722182392344</v>
       </c>
       <c r="N2">
-        <v>0.2245782314207361</v>
+        <v>0.04547340708145953</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.384730454509338</v>
       </c>
       <c r="P2">
-        <v>1.797662530480679</v>
+        <v>0.2546863677978735</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.440850463626873</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.269836790146741</v>
+        <v>1.118454627103404</v>
       </c>
       <c r="C3">
-        <v>0.147886043794685</v>
+        <v>0.1774321237196972</v>
       </c>
       <c r="D3">
-        <v>0.01138675687905177</v>
+        <v>0.01770681451682776</v>
       </c>
       <c r="E3">
-        <v>0.01789145548937832</v>
+        <v>0.02365072856943051</v>
       </c>
       <c r="F3">
-        <v>1.814123742109345</v>
+        <v>1.472474762132705</v>
       </c>
       <c r="G3">
-        <v>0.0008578905246596821</v>
+        <v>0.07182280798168739</v>
       </c>
       <c r="H3">
-        <v>0.0356474290542883</v>
+        <v>0.02035362448599554</v>
       </c>
       <c r="I3">
-        <v>0.04229958235828724</v>
+        <v>0.02152300287454434</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.089735050964258</v>
+        <v>0.8377636647980253</v>
       </c>
       <c r="L3">
-        <v>0.04022257549598862</v>
+        <v>0.3417508565060956</v>
       </c>
       <c r="M3">
-        <v>1.293770049909426</v>
+        <v>0.2878456588390605</v>
       </c>
       <c r="N3">
-        <v>0.1992648883453967</v>
+        <v>0.04253503093495148</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.212285256132731</v>
       </c>
       <c r="P3">
-        <v>1.809536822342359</v>
+        <v>0.226817207559634</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.460348303154063</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.163669218489247</v>
+        <v>1.023388764504205</v>
       </c>
       <c r="C4">
-        <v>0.1346936680379827</v>
+        <v>0.1602999861114824</v>
       </c>
       <c r="D4">
-        <v>0.01042475017942479</v>
+        <v>0.01613658469568691</v>
       </c>
       <c r="E4">
-        <v>0.01650154991899555</v>
+        <v>0.02238623147604279</v>
       </c>
       <c r="F4">
-        <v>1.756083944107317</v>
+        <v>1.42497234352625</v>
       </c>
       <c r="G4">
-        <v>0.0008605593920947852</v>
+        <v>0.07795437878360989</v>
       </c>
       <c r="H4">
-        <v>0.03975401535004242</v>
+        <v>0.022937361968697</v>
       </c>
       <c r="I4">
-        <v>0.0468470220425079</v>
+        <v>0.02405908013576452</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.063443808136569</v>
+        <v>0.8193765590495659</v>
       </c>
       <c r="L4">
-        <v>0.03777211737551411</v>
+        <v>0.3388723089390453</v>
       </c>
       <c r="M4">
-        <v>1.184810794211387</v>
+        <v>0.2785790971502102</v>
       </c>
       <c r="N4">
-        <v>0.1838007514972446</v>
+        <v>0.04069845514746007</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.106288161662917</v>
       </c>
       <c r="P4">
-        <v>1.816969753649616</v>
+        <v>0.2098017179311995</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.472311364737521</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.119317640141219</v>
+        <v>0.9835561715107417</v>
       </c>
       <c r="C5">
-        <v>0.1296035132637883</v>
+        <v>0.1535957170891038</v>
       </c>
       <c r="D5">
-        <v>0.01007362378661014</v>
+        <v>0.01554850953054654</v>
       </c>
       <c r="E5">
-        <v>0.01593209299391596</v>
+        <v>0.02186595326318042</v>
       </c>
       <c r="F5">
-        <v>1.731039413440953</v>
+        <v>1.404283724486248</v>
       </c>
       <c r="G5">
-        <v>0.0008616786116796972</v>
+        <v>0.08059944285785292</v>
       </c>
       <c r="H5">
-        <v>0.04154233164848353</v>
+        <v>0.02406754533487065</v>
       </c>
       <c r="I5">
-        <v>0.04892825667883605</v>
+        <v>0.02527870477403482</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.051655494140668</v>
+        <v>0.8109169930401237</v>
       </c>
       <c r="L5">
-        <v>0.03672771198388425</v>
+        <v>0.3372248284352182</v>
       </c>
       <c r="M5">
-        <v>1.139964924217509</v>
+        <v>0.2746873062329946</v>
       </c>
       <c r="N5">
-        <v>0.1776317575602917</v>
+        <v>0.039906994301111</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.062570582082657</v>
       </c>
       <c r="P5">
-        <v>1.818820365267342</v>
+        <v>0.203004703682403</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.476257502192411</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.110656261644294</v>
+        <v>0.9757615003948104</v>
       </c>
       <c r="C6">
-        <v>0.1290231632651313</v>
+        <v>0.1527533846899871</v>
       </c>
       <c r="D6">
-        <v>0.01006093763236393</v>
+        <v>0.0155059014577823</v>
       </c>
       <c r="E6">
-        <v>0.01583266245743786</v>
+        <v>0.02177498431796998</v>
       </c>
       <c r="F6">
-        <v>1.725046808872833</v>
+        <v>1.399238127606736</v>
       </c>
       <c r="G6">
-        <v>0.0008618761506867461</v>
+        <v>0.0810710050074186</v>
       </c>
       <c r="H6">
-        <v>0.04186155854736295</v>
+        <v>0.02426963192800236</v>
       </c>
       <c r="I6">
-        <v>0.04942644105166671</v>
+        <v>0.02563253049709147</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.048362332727322</v>
+        <v>0.8083893475754209</v>
       </c>
       <c r="L6">
-        <v>0.0365042486326761</v>
+        <v>0.3364637268605151</v>
       </c>
       <c r="M6">
-        <v>1.131886728719167</v>
+        <v>0.2736971555120888</v>
       </c>
       <c r="N6">
-        <v>0.176750160710526</v>
+        <v>0.03973305624212031</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.054715376562484</v>
       </c>
       <c r="P6">
-        <v>1.817651330793922</v>
+        <v>0.2020182074305268</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.475785186768761</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.159522227083528</v>
+        <v>1.016656936634774</v>
       </c>
       <c r="C7">
-        <v>0.1353374272796231</v>
+        <v>0.1589095007146994</v>
       </c>
       <c r="D7">
-        <v>0.01054427323100171</v>
+        <v>0.01670705151676088</v>
       </c>
       <c r="E7">
-        <v>0.0164803782799634</v>
+        <v>0.02248783368906437</v>
       </c>
       <c r="F7">
-        <v>1.750718898214913</v>
+        <v>1.412207007250402</v>
       </c>
       <c r="G7">
-        <v>0.0008606020926895834</v>
+        <v>0.07876252604245026</v>
       </c>
       <c r="H7">
-        <v>0.03982025631900177</v>
+        <v>0.02302500521316009</v>
       </c>
       <c r="I7">
-        <v>0.0472527197030308</v>
+        <v>0.02451036152411934</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.059633701559569</v>
+        <v>0.8116985278941513</v>
       </c>
       <c r="L7">
-        <v>0.03762192427577205</v>
+        <v>0.3356437287141318</v>
       </c>
       <c r="M7">
-        <v>1.182462712881659</v>
+        <v>0.2760773592639474</v>
       </c>
       <c r="N7">
-        <v>0.1841057160303023</v>
+        <v>0.04052831466751705</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.098433210062268</v>
       </c>
       <c r="P7">
-        <v>1.812974698801945</v>
+        <v>0.2097760422928729</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.46432365378233</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.378307023385986</v>
+        <v>1.205169426103623</v>
       </c>
       <c r="C8">
-        <v>0.1631800265465699</v>
+        <v>0.1900887303955159</v>
       </c>
       <c r="D8">
-        <v>0.01259398440589976</v>
+        <v>0.02107479042285121</v>
       </c>
       <c r="E8">
-        <v>0.01936130313928608</v>
+        <v>0.02538749465469792</v>
       </c>
       <c r="F8">
-        <v>1.869826183344173</v>
+        <v>1.490685647535727</v>
       </c>
       <c r="G8">
-        <v>0.0008551559911554043</v>
+        <v>0.06868570127731388</v>
       </c>
       <c r="H8">
-        <v>0.03167029066199589</v>
+        <v>0.01799634331218714</v>
       </c>
       <c r="I8">
-        <v>0.03829971025766987</v>
+        <v>0.01968455261304136</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.113043311200116</v>
+        <v>0.8384415475717191</v>
       </c>
       <c r="L8">
-        <v>0.04264086213204621</v>
+        <v>0.3369840893111942</v>
       </c>
       <c r="M8">
-        <v>1.408004957016686</v>
+        <v>0.2918563965978294</v>
       </c>
       <c r="N8">
-        <v>0.2163504625975747</v>
+        <v>0.04416873475108396</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.304220368623277</v>
       </c>
       <c r="P8">
-        <v>1.79649250195704</v>
+        <v>0.2444988686078062</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.427849957560952</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.813684586065051</v>
+        <v>1.587549150367948</v>
       </c>
       <c r="C9">
-        <v>0.2193124259536035</v>
+        <v>0.2594614173969205</v>
       </c>
       <c r="D9">
-        <v>0.01653688246681995</v>
+        <v>0.02802638128446944</v>
       </c>
       <c r="E9">
-        <v>0.02511047811474221</v>
+        <v>0.03063185755168973</v>
       </c>
       <c r="F9">
-        <v>2.116875824670501</v>
+        <v>1.681640543218251</v>
       </c>
       <c r="G9">
-        <v>0.0008451351355760212</v>
+        <v>0.04909032402357383</v>
       </c>
       <c r="H9">
-        <v>0.01910538879750723</v>
+        <v>0.01027983601572839</v>
       </c>
       <c r="I9">
-        <v>0.02409140145662469</v>
+        <v>0.01192372590447466</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.22527717230107</v>
+        <v>0.9111112584591297</v>
       </c>
       <c r="L9">
-        <v>0.05264014239880055</v>
+        <v>0.3462215516998128</v>
       </c>
       <c r="M9">
-        <v>1.857120427126461</v>
+        <v>0.335505768574059</v>
       </c>
       <c r="N9">
-        <v>0.2796304632914257</v>
+        <v>0.05143758102436635</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.730616033742848</v>
       </c>
       <c r="P9">
-        <v>1.772479126493025</v>
+        <v>0.3139181740556154</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.379411083229478</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.118378284198116</v>
+        <v>1.835741840681465</v>
       </c>
       <c r="C10">
-        <v>0.2627155906052963</v>
+        <v>0.2993360873728648</v>
       </c>
       <c r="D10">
-        <v>0.01926818667341834</v>
+        <v>0.03563123932898549</v>
       </c>
       <c r="E10">
-        <v>0.02811282237509438</v>
+        <v>0.03390930253876157</v>
       </c>
       <c r="F10">
-        <v>2.271558551221375</v>
+        <v>1.752293972364569</v>
       </c>
       <c r="G10">
-        <v>0.0008383386017287159</v>
+        <v>0.04656374584516776</v>
       </c>
       <c r="H10">
-        <v>0.01272543519421054</v>
+        <v>0.006700259082347504</v>
       </c>
       <c r="I10">
-        <v>0.01664335356720592</v>
+        <v>0.008307702972261133</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.290969896404704</v>
+        <v>0.9258243744329206</v>
       </c>
       <c r="L10">
-        <v>0.05757437945223032</v>
+        <v>0.338008215185198</v>
       </c>
       <c r="M10">
-        <v>2.177345419157319</v>
+        <v>0.356163276296428</v>
       </c>
       <c r="N10">
-        <v>0.3169949042076183</v>
+        <v>0.0544810824637274</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.998630630828444</v>
       </c>
       <c r="P10">
-        <v>1.736822727678202</v>
+        <v>0.3530863740234622</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.307848086228319</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.128260461241268</v>
+        <v>1.816074624895265</v>
       </c>
       <c r="C11">
-        <v>0.2809295598935648</v>
+        <v>0.2906588059732655</v>
       </c>
       <c r="D11">
-        <v>0.01781839261162688</v>
+        <v>0.0395631287103555</v>
       </c>
       <c r="E11">
-        <v>0.01991329134858866</v>
+        <v>0.026401379753203</v>
       </c>
       <c r="F11">
-        <v>2.097067365090894</v>
+        <v>1.521514794971438</v>
       </c>
       <c r="G11">
-        <v>0.0008365755572457706</v>
+        <v>0.08040772657577477</v>
       </c>
       <c r="H11">
-        <v>0.03090357123400977</v>
+        <v>0.0253929067847416</v>
       </c>
       <c r="I11">
-        <v>0.01567662805644776</v>
+        <v>0.008459003215718575</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.181051023901801</v>
+        <v>0.7951790914982055</v>
       </c>
       <c r="L11">
-        <v>0.04403952834153557</v>
+        <v>0.2863741808474778</v>
       </c>
       <c r="M11">
-        <v>2.213555246884027</v>
+        <v>0.3110568610757056</v>
       </c>
       <c r="N11">
-        <v>0.253118431503836</v>
+        <v>0.04372581137876708</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.966428639517062</v>
       </c>
       <c r="P11">
-        <v>1.57752538165316</v>
+        <v>0.2805609174045003</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>1.165019816507151</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.076640980590923</v>
+        <v>1.7628304728035</v>
       </c>
       <c r="C12">
-        <v>0.2856848483060332</v>
+        <v>0.2811533880544062</v>
       </c>
       <c r="D12">
-        <v>0.01588858822475814</v>
+        <v>0.03908249245581885</v>
       </c>
       <c r="E12">
-        <v>0.01470420361291946</v>
+        <v>0.02083775839008783</v>
       </c>
       <c r="F12">
-        <v>1.929877508958697</v>
+        <v>1.356131898710984</v>
       </c>
       <c r="G12">
-        <v>0.0008363823743772621</v>
+        <v>0.1055121575928908</v>
       </c>
       <c r="H12">
-        <v>0.06996944530337856</v>
+        <v>0.06444704514933619</v>
       </c>
       <c r="I12">
-        <v>0.01561252117876855</v>
+        <v>0.008523205437555248</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.084016692212344</v>
+        <v>0.708199424622677</v>
       </c>
       <c r="L12">
-        <v>0.03824509184378044</v>
+        <v>0.2545588809558161</v>
       </c>
       <c r="M12">
-        <v>2.177505820397045</v>
+        <v>0.278197749476341</v>
       </c>
       <c r="N12">
-        <v>0.1974548056333703</v>
+        <v>0.04059315593549506</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.905702140701521</v>
       </c>
       <c r="P12">
-        <v>1.469031848520991</v>
+        <v>0.2191641662050472</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>1.096412847877343</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.969378884001969</v>
+        <v>1.682984166888531</v>
       </c>
       <c r="C13">
-        <v>0.2813380247400517</v>
+        <v>0.2761516333970064</v>
       </c>
       <c r="D13">
-        <v>0.01368577390731218</v>
+        <v>0.03423205850470623</v>
       </c>
       <c r="E13">
-        <v>0.01147110955461028</v>
+        <v>0.01669808263339956</v>
       </c>
       <c r="F13">
-        <v>1.751099799547745</v>
+        <v>1.234227728259157</v>
       </c>
       <c r="G13">
-        <v>0.0008374259660615353</v>
+        <v>0.1009341583183598</v>
       </c>
       <c r="H13">
-        <v>0.1268446526477476</v>
+        <v>0.12084162742876</v>
       </c>
       <c r="I13">
-        <v>0.01670725197468492</v>
+        <v>0.009020436275522847</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9857151400490878</v>
+        <v>0.6489787600152539</v>
       </c>
       <c r="L13">
-        <v>0.03777965624287116</v>
+        <v>0.2346079876726535</v>
       </c>
       <c r="M13">
-        <v>2.081060152376295</v>
+        <v>0.2536545092388494</v>
       </c>
       <c r="N13">
-        <v>0.1458688639205334</v>
+        <v>0.04280230325167445</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.830413416617006</v>
       </c>
       <c r="P13">
-        <v>1.386538357816328</v>
+        <v>0.1638602825282049</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>1.068658755268828</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.868717787414795</v>
+        <v>1.613668239321584</v>
       </c>
       <c r="C14">
-        <v>0.2744247710469097</v>
+        <v>0.274574098571037</v>
       </c>
       <c r="D14">
-        <v>0.01207780919999024</v>
+        <v>0.02925456542696026</v>
       </c>
       <c r="E14">
-        <v>0.01042505349445194</v>
+        <v>0.01504727852231574</v>
       </c>
       <c r="F14">
-        <v>1.621230567969207</v>
+        <v>1.164333313777945</v>
       </c>
       <c r="G14">
-        <v>0.0008387185369264207</v>
+        <v>0.08545605474481732</v>
       </c>
       <c r="H14">
-        <v>0.1773214017459708</v>
+        <v>0.1707574834221646</v>
       </c>
       <c r="I14">
-        <v>0.01814739721119807</v>
+        <v>0.00970150925026747</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.916522357266345</v>
+        <v>0.6173815704436265</v>
       </c>
       <c r="L14">
-        <v>0.04069570661901167</v>
+        <v>0.2247701861905043</v>
       </c>
       <c r="M14">
-        <v>1.986223919392444</v>
+        <v>0.2394660431009328</v>
       </c>
       <c r="N14">
-        <v>0.1129491364344659</v>
+        <v>0.04748184627940333</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.769559676496073</v>
       </c>
       <c r="P14">
-        <v>1.341515836571382</v>
+        <v>0.1289853879383571</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>1.063067563792763</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.831376433097347</v>
+        <v>1.589321037182685</v>
       </c>
       <c r="C15">
-        <v>0.271133277914771</v>
+        <v>0.2750391754424584</v>
       </c>
       <c r="D15">
-        <v>0.01166194763120387</v>
+        <v>0.0274152186861869</v>
       </c>
       <c r="E15">
-        <v>0.01028915617276771</v>
+        <v>0.01480651230544117</v>
       </c>
       <c r="F15">
-        <v>1.585198554628235</v>
+        <v>1.151825245488865</v>
       </c>
       <c r="G15">
-        <v>0.0008393190676904763</v>
+        <v>0.07748894962450592</v>
       </c>
       <c r="H15">
-        <v>0.1903583275188652</v>
+        <v>0.1835260802268692</v>
       </c>
       <c r="I15">
-        <v>0.0189324694693731</v>
+        <v>0.0101419072401594</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8979434842056406</v>
+        <v>0.6126522005638435</v>
       </c>
       <c r="L15">
-        <v>0.04170434012862501</v>
+        <v>0.2237123890155637</v>
       </c>
       <c r="M15">
-        <v>1.949981690976756</v>
+        <v>0.2367758428800428</v>
       </c>
       <c r="N15">
-        <v>0.1050904256492444</v>
+        <v>0.04892655163001791</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.749792003361307</v>
       </c>
       <c r="P15">
-        <v>1.333672088591808</v>
+        <v>0.1208446017876241</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>1.065892895613695</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.722581325248115</v>
+        <v>1.524980255126621</v>
       </c>
       <c r="C16">
-        <v>0.2534812468953476</v>
+        <v>0.2776164529392418</v>
       </c>
       <c r="D16">
-        <v>0.01105142054393227</v>
+        <v>0.0216662300979884</v>
       </c>
       <c r="E16">
-        <v>0.009761216606641199</v>
+        <v>0.01448372256564279</v>
       </c>
       <c r="F16">
-        <v>1.554929396430211</v>
+        <v>1.197263603346769</v>
       </c>
       <c r="G16">
-        <v>0.000842016749621655</v>
+        <v>0.05109416600088323</v>
       </c>
       <c r="H16">
-        <v>0.1802810138789255</v>
+        <v>0.172133536456073</v>
       </c>
       <c r="I16">
-        <v>0.02201544630180852</v>
+        <v>0.0115605029877619</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8890484109703252</v>
+        <v>0.6434795749564941</v>
       </c>
       <c r="L16">
-        <v>0.03968794970275447</v>
+        <v>0.2377916728542893</v>
       </c>
       <c r="M16">
-        <v>1.832542866813696</v>
+        <v>0.2447642387529179</v>
       </c>
       <c r="N16">
-        <v>0.1013139111225172</v>
+        <v>0.04713030529818951</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.70014765741368</v>
       </c>
       <c r="P16">
-        <v>1.362645603121514</v>
+        <v>0.1186731726468793</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>1.106495346629325</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.69217989309729</v>
+        <v>1.507906386910861</v>
       </c>
       <c r="C17">
-        <v>0.2437437215313025</v>
+        <v>0.2774095011970701</v>
       </c>
       <c r="D17">
-        <v>0.01142892904406168</v>
+        <v>0.02036907079792272</v>
       </c>
       <c r="E17">
-        <v>0.009683280347537238</v>
+        <v>0.01459866337918059</v>
       </c>
       <c r="F17">
-        <v>1.599621634751998</v>
+        <v>1.263057692997734</v>
       </c>
       <c r="G17">
-        <v>0.0008434080566179019</v>
+        <v>0.04618821982153065</v>
       </c>
       <c r="H17">
-        <v>0.1439783808635013</v>
+        <v>0.1351251696017783</v>
       </c>
       <c r="I17">
-        <v>0.02367069081956341</v>
+        <v>0.01235600808224735</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9182612023192007</v>
+        <v>0.6812254259740413</v>
       </c>
       <c r="L17">
-        <v>0.03600003203036017</v>
+        <v>0.2534748853852378</v>
       </c>
       <c r="M17">
-        <v>1.79271246327437</v>
+        <v>0.256855600345073</v>
       </c>
       <c r="N17">
-        <v>0.1150312998731806</v>
+        <v>0.04275141382708547</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.686113743184848</v>
       </c>
       <c r="P17">
-        <v>1.407842939026025</v>
+        <v>0.1346360740921355</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>1.144376021747117</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.728308278131664</v>
+        <v>1.538811799886986</v>
       </c>
       <c r="C18">
-        <v>0.2388791838291127</v>
+        <v>0.2784259644671181</v>
       </c>
       <c r="D18">
-        <v>0.01265367042390864</v>
+        <v>0.02149720238450215</v>
       </c>
       <c r="E18">
-        <v>0.01112697143703212</v>
+        <v>0.01614146983800602</v>
       </c>
       <c r="F18">
-        <v>1.720555591597275</v>
+        <v>1.373515740465649</v>
       </c>
       <c r="G18">
-        <v>0.0008437561719212367</v>
+        <v>0.04487279449122683</v>
       </c>
       <c r="H18">
-        <v>0.09138734935154957</v>
+        <v>0.08239156074767351</v>
       </c>
       <c r="I18">
-        <v>0.02372247244433989</v>
+        <v>0.01217879048413995</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9884046414912859</v>
+        <v>0.7401944306854631</v>
       </c>
       <c r="L18">
-        <v>0.03357347251841158</v>
+        <v>0.2762216496334133</v>
       </c>
       <c r="M18">
-        <v>1.815868616940548</v>
+        <v>0.2780330561417585</v>
       </c>
       <c r="N18">
-        <v>0.1487036890850462</v>
+        <v>0.03868758200922695</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.714806681066278</v>
       </c>
       <c r="P18">
-        <v>1.480612163761741</v>
+        <v>0.1720343702197695</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1.193285221632358</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.809199772581934</v>
+        <v>1.603124551519926</v>
       </c>
       <c r="C19">
-        <v>0.2395735673632373</v>
+        <v>0.2835816985278541</v>
       </c>
       <c r="D19">
-        <v>0.01476278903578176</v>
+        <v>0.02449106365354226</v>
       </c>
       <c r="E19">
-        <v>0.01539798901460454</v>
+        <v>0.02044063886181924</v>
       </c>
       <c r="F19">
-        <v>1.891979987773169</v>
+        <v>1.515090548074937</v>
       </c>
       <c r="G19">
-        <v>0.0008432192246679705</v>
+        <v>0.0435865089833567</v>
       </c>
       <c r="H19">
-        <v>0.04501660564378085</v>
+        <v>0.03642453032957604</v>
       </c>
       <c r="I19">
-        <v>0.02306815028116294</v>
+        <v>0.01191344604300948</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.084847644537611</v>
+        <v>0.8131353948529068</v>
       </c>
       <c r="L19">
-        <v>0.03697251948777591</v>
+        <v>0.3033533847954857</v>
       </c>
       <c r="M19">
-        <v>1.884734202081148</v>
+        <v>0.3054606001986215</v>
       </c>
       <c r="N19">
-        <v>0.2021067091651929</v>
+        <v>0.03961490207436391</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.777938121531207</v>
       </c>
       <c r="P19">
-        <v>1.575300741155104</v>
+        <v>0.230529172535114</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>1.252630315367895</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.026302306121522</v>
+        <v>1.771202727454551</v>
       </c>
       <c r="C20">
-        <v>0.2534098101882023</v>
+        <v>0.2985830246896342</v>
       </c>
       <c r="D20">
-        <v>0.01893168359086417</v>
+        <v>0.0323922321123149</v>
       </c>
       <c r="E20">
-        <v>0.02721817444702168</v>
+        <v>0.0325066734436863</v>
       </c>
       <c r="F20">
-        <v>2.213945822866094</v>
+        <v>1.747830033403673</v>
       </c>
       <c r="G20">
-        <v>0.0008401785456133307</v>
+        <v>0.04148551687174606</v>
       </c>
       <c r="H20">
-        <v>0.01430865152584548</v>
+        <v>0.007493857044977403</v>
       </c>
       <c r="I20">
-        <v>0.01944110111336439</v>
+        <v>0.01015754869852969</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.261723641156387</v>
+        <v>0.9279000669286575</v>
       </c>
       <c r="L20">
-        <v>0.05575155277400867</v>
+        <v>0.3422622740783012</v>
       </c>
       <c r="M20">
-        <v>2.086837836103541</v>
+        <v>0.3529195023776452</v>
       </c>
       <c r="N20">
-        <v>0.3079615246619909</v>
+        <v>0.05341989141702541</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.943532026328427</v>
       </c>
       <c r="P20">
-        <v>1.733624983322088</v>
+        <v>0.344720651618772</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.333022188177551</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.284650797831716</v>
+        <v>1.921531313318866</v>
       </c>
       <c r="C21">
-        <v>0.2876222707645013</v>
+        <v>0.2916414375818022</v>
       </c>
       <c r="D21">
-        <v>0.0215194652543218</v>
+        <v>0.04901270241818878</v>
       </c>
       <c r="E21">
-        <v>0.03158027827932308</v>
+        <v>0.0396731349059678</v>
       </c>
       <c r="F21">
-        <v>2.380566791667604</v>
+        <v>1.693209408837703</v>
       </c>
       <c r="G21">
-        <v>0.0008348376086172449</v>
+        <v>0.1000193078695304</v>
       </c>
       <c r="H21">
-        <v>0.009472396397354546</v>
+        <v>0.005005014924033935</v>
       </c>
       <c r="I21">
-        <v>0.01412011867449081</v>
+        <v>0.007944864670720975</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.339518991945923</v>
+        <v>0.8797922770224602</v>
       </c>
       <c r="L21">
-        <v>0.06328150604687721</v>
+        <v>0.3154461252965959</v>
       </c>
       <c r="M21">
-        <v>2.354054983702781</v>
+        <v>0.3455906813166578</v>
       </c>
       <c r="N21">
-        <v>0.3520564931471881</v>
+        <v>0.05794180255280423</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.056970474652644</v>
       </c>
       <c r="P21">
-        <v>1.735745097735034</v>
+        <v>0.3850861678299253</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>1.224170897010566</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.451566400345712</v>
+        <v>2.012543175905762</v>
       </c>
       <c r="C22">
-        <v>0.3093988530970364</v>
+        <v>0.2841749915492073</v>
       </c>
       <c r="D22">
-        <v>0.022892959520874</v>
+        <v>0.06139743797897523</v>
       </c>
       <c r="E22">
-        <v>0.03381795104300878</v>
+        <v>0.04416592447483936</v>
       </c>
       <c r="F22">
-        <v>2.482729920037784</v>
+        <v>1.642959084267147</v>
       </c>
       <c r="G22">
-        <v>0.000831459229743711</v>
+        <v>0.1866810623588364</v>
       </c>
       <c r="H22">
-        <v>0.007038915956589065</v>
+        <v>0.003784805646532607</v>
       </c>
       <c r="I22">
-        <v>0.01091797944427508</v>
+        <v>0.006348833770069007</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.387285882865598</v>
+        <v>0.8420940339124527</v>
       </c>
       <c r="L22">
-        <v>0.06721783709376439</v>
+        <v>0.2966481725611914</v>
       </c>
       <c r="M22">
-        <v>2.525893512092637</v>
+        <v>0.3378355962665154</v>
       </c>
       <c r="N22">
-        <v>0.375456296803776</v>
+        <v>0.06007724985966689</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.11864898503589</v>
       </c>
       <c r="P22">
-        <v>1.733556190436857</v>
+        <v>0.4050274731445285</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>1.15368668053322</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.366805018408229</v>
+        <v>1.976021488472043</v>
       </c>
       <c r="C23">
-        <v>0.2968618682122894</v>
+        <v>0.292375357843639</v>
       </c>
       <c r="D23">
-        <v>0.02200240641911222</v>
+        <v>0.05290612423834062</v>
       </c>
       <c r="E23">
-        <v>0.03263815931267011</v>
+        <v>0.04136813314462806</v>
       </c>
       <c r="F23">
-        <v>2.434022482715363</v>
+        <v>1.693858493806289</v>
       </c>
       <c r="G23">
-        <v>0.0008332290252121465</v>
+        <v>0.1217744300647468</v>
       </c>
       <c r="H23">
-        <v>0.008269340189241858</v>
+        <v>0.004367828559940556</v>
       </c>
       <c r="I23">
-        <v>0.01219934692979141</v>
+        <v>0.006718801580841927</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.366039162578744</v>
+        <v>0.8756722460279605</v>
       </c>
       <c r="L23">
-        <v>0.06528053827699409</v>
+        <v>0.3112105978031039</v>
       </c>
       <c r="M23">
-        <v>2.436246077637236</v>
+        <v>0.3474873425491865</v>
       </c>
       <c r="N23">
-        <v>0.3624758369551557</v>
+        <v>0.05915818138657869</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.102835848068878</v>
       </c>
       <c r="P23">
-        <v>1.739126667930506</v>
+        <v>0.3947930634073487</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>1.201763868923763</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.039837718552178</v>
+        <v>1.782806453009698</v>
       </c>
       <c r="C24">
-        <v>0.251822953634445</v>
+        <v>0.2976692070662921</v>
       </c>
       <c r="D24">
-        <v>0.01892715452212457</v>
+        <v>0.03235433837067347</v>
       </c>
       <c r="E24">
-        <v>0.02820223268192379</v>
+        <v>0.03347355202299696</v>
       </c>
       <c r="F24">
-        <v>2.242366431617981</v>
+        <v>1.772503129736833</v>
       </c>
       <c r="G24">
-        <v>0.000840106098703274</v>
+        <v>0.04113855789449072</v>
       </c>
       <c r="H24">
-        <v>0.0139848471673385</v>
+        <v>0.007234938604927243</v>
       </c>
       <c r="I24">
-        <v>0.0187671615951972</v>
+        <v>0.009445766516058107</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.279559120649971</v>
+        <v>0.942264592920715</v>
       </c>
       <c r="L24">
-        <v>0.05773479547991656</v>
+        <v>0.3476365813804776</v>
       </c>
       <c r="M24">
-        <v>2.095443360353897</v>
+        <v>0.3582867153942857</v>
       </c>
       <c r="N24">
-        <v>0.3144171443366872</v>
+        <v>0.05502697771843046</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.952139784642299</v>
       </c>
       <c r="P24">
-        <v>1.753941795916262</v>
+        <v>0.3518288586462432</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.347183046133168</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.689263671968746</v>
+        <v>1.482961984292331</v>
       </c>
       <c r="C25">
-        <v>0.2050875389529097</v>
+        <v>0.2447342512528792</v>
       </c>
       <c r="D25">
-        <v>0.01568362694613867</v>
+        <v>0.02575470258783952</v>
       </c>
       <c r="E25">
-        <v>0.02351768305730495</v>
+        <v>0.02901316081670302</v>
       </c>
       <c r="F25">
-        <v>2.040403277311796</v>
+        <v>1.633561253714305</v>
       </c>
       <c r="G25">
-        <v>0.0008478180681794043</v>
+        <v>0.0525507180118141</v>
       </c>
       <c r="H25">
-        <v>0.0221597181164066</v>
+        <v>0.01208857502337971</v>
       </c>
       <c r="I25">
-        <v>0.02808428361880733</v>
+        <v>0.01431529268100551</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.188202607191336</v>
+        <v>0.8925215531914716</v>
       </c>
       <c r="L25">
-        <v>0.0496876813210605</v>
+        <v>0.3443352165681404</v>
       </c>
       <c r="M25">
-        <v>1.73186864219042</v>
+        <v>0.3234345955285036</v>
       </c>
       <c r="N25">
-        <v>0.2631282246053814</v>
+        <v>0.0493523185609277</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.620468943026623</v>
       </c>
       <c r="P25">
-        <v>1.771830513294518</v>
+        <v>0.2962096866719435</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.394012090762288</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
